--- a/Fortschritt_WasZuTunIst.xlsx
+++ b/Fortschritt_WasZuTunIst.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felixius\Desktop\Vokabeln_abfragen\3bhwii_project_klaric_haider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patri\Desktop\Projekt\3bhwii_project_klaric_haider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5443F5B-6DD1-47BF-A87F-66A38CED300D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0159E2A4-D7C7-411A-A416-82D56FEBCED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15975" yWindow="3840" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -45,7 +45,22 @@
     <t>Klasse Admin</t>
   </si>
   <si>
-    <t>Fortschritt</t>
+    <t>Vererbung zwischen Admin und Person</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Wer</t>
+  </si>
+  <si>
+    <t>Genau Infos</t>
+  </si>
+  <si>
+    <t>Pati/Felix</t>
+  </si>
+  <si>
+    <t>GitHub Fertig eingerichtet</t>
   </si>
 </sst>
 </file>
@@ -89,9 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -372,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,7 +399,6 @@
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -391,9 +406,6 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -415,6 +427,33 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44631</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Fortschritt_WasZuTunIst.xlsx
+++ b/Fortschritt_WasZuTunIst.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patri\Desktop\Projekt\3bhwii_project_klaric_haider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix Haider\Desktop\3BHW_projekt_Klaric_Haider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0159E2A4-D7C7-411A-A416-82D56FEBCED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C03C15-0C4D-4CF5-A3E9-0436DE08FA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Klasse Admin</t>
   </si>
   <si>
-    <t>Vererbung zwischen Admin und Person</t>
-  </si>
-  <si>
     <t>Datum</t>
   </si>
   <si>
@@ -61,6 +58,18 @@
   </si>
   <si>
     <t>GitHub Fertig eingerichtet</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Klasse Spieler</t>
+  </si>
+  <si>
+    <t>Pati</t>
+  </si>
+  <si>
+    <t>Vererbung</t>
   </si>
 </sst>
 </file>
@@ -391,69 +400,94 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2">
         <v>44631</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Fortschritt_WasZuTunIst.xlsx
+++ b/Fortschritt_WasZuTunIst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix Haider\Desktop\3BHW_projekt_Klaric_Haider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C03C15-0C4D-4CF5-A3E9-0436DE08FA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3E1567-7D64-471B-A4A3-83FEA9567385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -400,7 +400,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,6 +438,9 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="2">
+        <v>44638</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -446,6 +449,9 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
+      <c r="C4" s="2">
+        <v>44638</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -454,6 +460,9 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
+      <c r="C5" s="2">
+        <v>44638</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -462,10 +471,19 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
+      <c r="C6" s="2">
+        <v>44638</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44638</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">

--- a/Fortschritt_WasZuTunIst.xlsx
+++ b/Fortschritt_WasZuTunIst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix Haider\Desktop\3BHW_projekt_Klaric_Haider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3E1567-7D64-471B-A4A3-83FEA9567385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB4FA9-9BC6-467C-B664-6AEEEAF68199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Vererbung</t>
+  </si>
+  <si>
+    <t>Klasse Person, Admin, Guesser; Hauptprogramm (menu)</t>
+  </si>
+  <si>
+    <t>Klasse Vokabeln fertig; Hauptprogramm (lesen,splitten,speichern)</t>
+  </si>
+  <si>
+    <t>Felix/Pati</t>
   </si>
 </sst>
 </file>
@@ -397,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.7265625" customWidth="1"/>
+    <col min="1" max="1" width="75" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" customWidth="1"/>
     <col min="6" max="6" width="17.26953125" customWidth="1"/>
@@ -428,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -506,6 +515,28 @@
       </c>
       <c r="C15" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44638</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44638</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Fortschritt_WasZuTunIst.xlsx
+++ b/Fortschritt_WasZuTunIst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix Haider\Desktop\3BHW_projekt_Klaric_Haider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patri\Desktop\Projekt\3bhwii_project_klaric_haider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB4FA9-9BC6-467C-B664-6AEEEAF68199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08983BAD-688F-40C8-8797-1C5D3B1A4701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>Felix/Pati</t>
+  </si>
+  <si>
+    <t>Am Hauptprogramm weitergearbeitet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am Hauptprogramm weitergearbeitet </t>
+  </si>
+  <si>
+    <t>Am Hauptprogramm weitergearbeitet : Menü zum Registrieren und Einloggen erstellt</t>
+  </si>
+  <si>
+    <t>Am Hauptprogramm weitergearbeitet : Menü zum Registrieren von Admins erstellt</t>
+  </si>
+  <si>
+    <t>Am Hauptprogramm weitergearbeitet : Menü zum Registrieren von Guesser erstellt</t>
   </si>
 </sst>
 </file>
@@ -406,22 +421,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="78.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -440,7 +455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -451,7 +466,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -462,7 +477,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -473,7 +488,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -484,7 +499,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -495,7 +510,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -506,7 +521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -517,27 +532,111 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
-      </c>
-      <c r="B16" s="2">
-        <v>44638</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>44638</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44645</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44659</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44638</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44645</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44659</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fortschritt_WasZuTunIst.xlsx
+++ b/Fortschritt_WasZuTunIst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patri\Desktop\Projekt\3bhwii_project_klaric_haider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix Haider\Desktop\3BHW_projekt_Klaric_Haider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08983BAD-688F-40C8-8797-1C5D3B1A4701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0656A1-D0CD-41AC-82F0-801CF8FBD18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Am Hauptprogramm weitergearbeitet : Menü zum Registrieren von Guesser erstellt</t>
+  </si>
+  <si>
+    <t>Keine Englsichen words können vorkommen</t>
+  </si>
+  <si>
+    <t>Guesser getScore</t>
   </si>
 </sst>
 </file>
@@ -421,22 +427,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="78.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="78.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -455,7 +461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -466,7 +472,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -477,7 +483,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -488,7 +494,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -499,7 +505,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -510,7 +516,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -521,7 +527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -532,10 +538,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -546,7 +552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -557,7 +563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -568,7 +574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -579,64 +585,83 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44673</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B30" s="2">
         <v>44638</v>
       </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B31" s="2">
         <v>44645</v>
       </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B32" s="2">
         <v>44652</v>
       </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B33" s="2">
         <v>44659</v>
       </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44673</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
